--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -74,13 +89,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>Saturday, 30 August, 2025 9:45 AM</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>Saturday, 30 August, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,53 +775,86 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>24</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>122.76000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>29</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +873,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -95,7 +107,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:23 AM</t>
+    <t>Saturday, 30 August, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -808,53 +820,86 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>122.76000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>30</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>150.75999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>34</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -878,10 +923,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -77,12 +77,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -107,7 +119,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:27 AM</t>
+    <t>Saturday, 30 August, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -831,7 +843,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -840,66 +852,99 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>150.75999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>32</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>154.59999999999999</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>37</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>38</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -928,10 +973,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:36 AM</t>
+    <t>Saturday, 30 August, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>NOVA-C-N 20 TAB</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -119,7 +128,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:43 AM</t>
+    <t>Saturday, 30 August, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -892,59 +901,92 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>154.59999999999999</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
         <v>38</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>176.09999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -978,10 +1020,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>NOVA-C-N 20 TAB</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:44 AM</t>
+    <t>Saturday, 30 August, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -868,7 +877,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -878,14 +887,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -894,7 +903,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -911,11 +920,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -927,66 +936,99 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>176.09999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>211.09999999999999</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>3.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -137,7 +146,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:51 AM</t>
+    <t>Saturday, 30 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +870,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,14 +879,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +896,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +912,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -927,7 +936,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -943,7 +952,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -960,7 +969,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -976,59 +985,92 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>211.09999999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1114,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -146,7 +146,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:00 AM</t>
+    <t>Saturday, 30 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -131,6 +143,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -140,13 +161,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>Saturday, 30 August, 2025 11:07 AM</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>Saturday, 30 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -837,7 +858,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -846,14 +867,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -863,14 +884,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -903,7 +924,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,7 +957,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -952,7 +973,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +983,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,7 +999,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -995,11 +1016,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1011,20 +1032,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1035,42 +1056,108 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>262.10000000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>25</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>35</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>48</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>332.75999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1206,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -167,7 +167,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:11 AM</t>
+    <t>Saturday, 30 August, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -62,6 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -89,6 +110,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -116,15 +143,21 @@
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
     <t>NOVA-C-N 20 TAB</t>
   </si>
   <si>
@@ -143,6 +176,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -152,12 +194,24 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -165,6 +219,15 @@
   </si>
   <si>
     <t>9:0</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>Saturday, 30 August, 2025 11:34 AM</t>
@@ -874,7 +937,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -884,14 +947,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -900,14 +963,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,11 +980,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -933,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +1013,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,14 +1029,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -983,11 +1046,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -999,14 +1062,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1016,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1049,11 +1112,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1065,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1082,14 +1145,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1098,66 +1161,297 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>50</v>
       </c>
-      <c t="s" r="Q16" s="12">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>332.75999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>32</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>63</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>56</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1219.76</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1510,45 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:34 AM</t>
+    <t>Saturday, 30 August, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>NOVA-C-N 20 TAB</t>
   </si>
   <si>
@@ -230,7 +239,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:35 AM</t>
+    <t>Saturday, 30 August, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1210,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1218,7 +1227,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1267,7 +1276,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,14 +1286,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1333,24 +1342,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,20 +1368,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1383,7 +1392,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1392,66 +1401,99 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
       </c>
-      <c t="s" r="Q23" s="12">
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>59</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1219.76</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>73</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>74</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>75</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1287.76</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1587,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>NOVA-C-N 20 TAB</t>
   </si>
   <si>
@@ -239,7 +248,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:39 AM</t>
+    <t>Saturday, 30 August, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1252,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1260,7 +1269,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1309,7 +1318,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1342,7 +1351,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1375,24 +1384,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,20 +1410,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1425,7 +1434,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1434,66 +1443,99 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
       </c>
-      <c t="s" r="Q24" s="12">
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>62</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>69</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1287.76</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>76</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>77</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>78</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1358.76</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1634,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -212,15 +221,24 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -248,7 +266,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:41 AM</t>
+    <t>Saturday, 30 August, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1402,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1401,7 +1419,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1417,24 +1435,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,7 +1461,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1456,18 +1474,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,66 +1494,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1358.76</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>71</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>62</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>71</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1494.76</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1723,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -266,7 +275,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:42 AM</t>
+    <t>Saturday, 30 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1180,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1237,7 +1246,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1303,7 +1312,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1320,7 +1329,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1369,7 +1378,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1379,14 +1388,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1402,7 +1411,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,11 +1421,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1435,7 +1444,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1452,7 +1461,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1468,24 +1477,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1494,28 +1503,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1527,20 +1536,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1551,7 +1560,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,66 +1569,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>84</v>
       </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1494.76</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>65</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>74</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>86</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1570.76</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>89</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>90</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1775,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -275,7 +275,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 12:03 PM</t>
+    <t>Saturday, 30 August, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -219,6 +228,15 @@
   </si>
   <si>
     <t>46.0000</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1213,7 +1231,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1230,7 +1248,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1279,7 +1297,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1345,7 +1363,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1362,7 +1380,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1411,7 +1429,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1444,7 +1462,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,11 +1472,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1477,7 +1495,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1494,7 +1512,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1510,24 +1528,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1536,31 +1554,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,7 +1587,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1582,18 +1600,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1602,66 +1620,132 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>87</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1570.76</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>80</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>88</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
         <v>90</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>68</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>80</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>92</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1657.26</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>94</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>95</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>96</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1864,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 12:06 PM</t>
+    <t>Saturday, 30 August, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>28.00</t>
   </si>
   <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -233,9 +242,6 @@
     <t>TRIMED FLU 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -293,7 +299,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 12:08 PM</t>
+    <t>Saturday, 30 August, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1501,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1528,7 +1534,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1545,7 +1551,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1561,7 +1567,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,14 +1577,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,31 +1593,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,28 +1626,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1653,31 +1659,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1686,66 +1692,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>93</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1657.26</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>68</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>82</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>94</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1715.26</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>96</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1874,10 +1913,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 12:09 PM</t>
+    <t>Saturday, 30 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -291,12 +300,6 @@
   </si>
   <si>
     <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t>Saturday, 30 August, 2025 1:07 PM</t>
@@ -1600,7 +1603,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1617,7 +1620,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1633,24 +1636,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,28 +1662,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1692,20 +1695,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1716,7 +1719,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1725,66 +1728,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1715.26</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>96</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>68</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>85</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>79</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1745.26</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>97</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
         <v>98</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>99</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1954,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 1:07 PM</t>
+    <t>Saturday, 30 August, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -128,15 +140,24 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>3:5</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -215,9 +245,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -302,7 +329,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 1:58 PM</t>
+    <t>Saturday, 30 August, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1036,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1019,14 +1046,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1035,14 +1062,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1059,7 +1086,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1092,7 +1119,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1118,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,7 +1178,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1191,7 +1218,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1207,7 +1234,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,11 +1244,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1233,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,11 +1277,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1266,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1310,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1299,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,11 +1343,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1332,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1376,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,11 +1409,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1398,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1442,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,14 +1475,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1485,7 +1512,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1497,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,7 +1557,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1547,14 +1574,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,14 +1590,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,7 +1623,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1613,11 +1640,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1629,14 +1656,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1646,14 +1673,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,31 +1689,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,28 +1722,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1728,31 +1755,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1761,66 +1788,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1745.26</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>97</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>98</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>94</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>99</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>94</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>94</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>88</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1847.26</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1959,10 +2085,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -242,6 +251,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>90.0900</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -329,7 +347,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 1:59 PM</t>
+    <t>Saturday, 30 August, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,7 +1153,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1163,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,14 +1179,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1178,14 +1196,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1212,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,11 +1229,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1227,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,11 +1262,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1260,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1295,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1300,7 +1318,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1328,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1366,7 +1384,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1383,7 +1401,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1399,7 +1417,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1416,7 +1434,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1465,7 +1483,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1531,7 +1549,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1548,7 +1566,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1597,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1611,10 +1629,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1706,14 +1724,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1739,11 +1757,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1795,21 +1813,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1821,31 +1839,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,7 +1872,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1867,18 +1885,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1887,66 +1905,132 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1847.26</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>107</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>100</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>108</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>100</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>94</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>2087.3499999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2184,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 2:14 PM</t>
+    <t>Saturday, 30 August, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -215,6 +227,18 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -347,7 +371,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 2:16 PM</t>
+    <t>Saturday, 30 August, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1328,11 +1352,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1344,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1377,7 +1401,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1394,11 +1418,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1410,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,7 +1500,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1493,11 +1517,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1509,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,11 +1550,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1542,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1748,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,11 +1781,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1773,7 +1797,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1790,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1839,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,28 +1896,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1905,20 +1929,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1929,7 +1953,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1951,18 +1975,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1978,59 +2002,125 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>2087.3499999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>114</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>22</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>108</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>116</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>108</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>102</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2130.1900000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2284,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -164,13 +164,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:1</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -371,7 +371,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 2:45 PM</t>
+    <t>Saturday, 30 August, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1359,7 +1359,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2090,7 +2090,7 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="P40" s="13">
-        <v>2130.1900000000001</v>
+        <v>2146.0300000000002</v>
       </c>
       <c r="Q40" s="13"/>
     </row>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -176,7 +185,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:5</t>
+    <t>8:5</t>
   </si>
   <si>
     <t>3.8400</t>
@@ -191,6 +200,18 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
   </si>
   <si>
@@ -203,6 +224,9 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>173.00</t>
   </si>
   <si>
@@ -212,10 +236,10 @@
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
@@ -275,6 +299,33 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>5:9</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -371,7 +422,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 2:59 PM</t>
+    <t>Saturday, 30 August, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1129,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1088,11 +1139,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1104,14 +1155,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1128,7 +1179,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1144,7 +1195,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1205,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1170,14 +1221,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1210,7 +1261,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1271,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1287,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1304,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1320,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,11 +1337,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1302,14 +1353,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,11 +1370,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1335,14 +1386,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1403,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1368,14 +1419,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1385,14 +1436,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1459,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,14 +1469,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1474,7 +1525,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,14 +1551,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,11 +1568,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1533,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1601,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1632,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,14 +1700,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1731,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1865,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,11 +1964,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1929,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,14 +1997,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,28 +2013,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -1995,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,31 +2079,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2061,66 +2112,198 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2146.0300000000002</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>25</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>125</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>129</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>125</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>130</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>25</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>125</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>125</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>119</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>121</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>122</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2328.23</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>137</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>138</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>139</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2477,30 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 5:56 PM</t>
+    <t>Saturday, 30 August, 2025 6:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -407,6 +407,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -422,7 +428,58 @@
     <t>سويت كوكو</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:04 PM</t>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صابون LUX </t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>مسك بتشيز كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشط خشب </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>Saturday, 30 August, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2218,7 +2275,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2232,10 +2289,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,49 +2318,346 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>125</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>119</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>120</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2328.23</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>137</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>138</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>139</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>25</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>125</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>140</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>25</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>125</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>145</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>125</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>119</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>125</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>119</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>50</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>125</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>148</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>25</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>125</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>119</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>151</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>25</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>125</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>152</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>154</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>155</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>125</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>148</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2775.23</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2497,10 +2851,55 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -470,16 +479,13 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:08 PM</t>
+    <t>Saturday, 30 August, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2325,7 +2331,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,14 +2357,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2390,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2421,10 +2427,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,14 +2456,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2487,10 +2493,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2499,14 +2505,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2539,7 +2545,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,11 +2555,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2565,7 +2571,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2582,11 +2588,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2605,7 +2611,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2615,49 +2621,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2775.23</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>156</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>157</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>125</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>151</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2790.23</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>158</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>159</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>160</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +2935,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>24.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
   </si>
   <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
@@ -1192,7 +1204,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1202,14 +1214,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1218,14 +1230,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1258,7 +1270,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1268,14 +1280,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1284,14 +1296,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1308,7 +1320,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1324,7 +1336,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1334,11 +1346,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1350,14 +1362,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1374,7 +1386,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1383,14 +1395,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1400,14 +1412,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1416,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,7 +1445,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1506,7 +1518,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1577,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1605,7 +1617,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1621,7 +1633,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1659,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1671,7 +1683,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1687,7 +1699,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1770,7 +1782,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1786,7 +1798,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1812,7 +1824,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1829,11 +1841,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1878,7 +1890,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1968,7 +1980,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2001,7 +2013,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2010,7 +2022,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,11 +2105,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,7 +2154,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2208,20 +2220,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2232,7 +2244,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2248,13 +2260,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2281,24 +2293,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,31 +2352,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2380,24 +2392,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,28 +2418,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2439,31 +2451,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,31 +2484,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2505,31 +2517,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,31 +2550,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,28 +2583,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2604,28 +2616,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2637,66 +2649,99 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2790.23</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>158</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>159</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>160</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>161</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>129</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>155</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2816.96</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>162</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>163</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>164</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2940,10 +2985,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:12 PM</t>
+    <t>Saturday, 30 August, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -236,9 +248,6 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
@@ -338,6 +347,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -497,7 +515,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:21 PM</t>
+    <t>Saturday, 30 August, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1577,11 +1595,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1610,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1626,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1650,7 +1668,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1666,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1716,7 +1734,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1749,7 +1767,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1765,7 +1783,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1798,7 +1816,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1848,7 +1866,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1897,7 +1915,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1914,7 +1932,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,11 +1991,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2062,7 +2080,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2076,10 +2094,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2222,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2260,21 +2278,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2286,31 +2304,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,31 +2337,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2359,24 +2377,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,31 +2403,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,31 +2436,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,7 +2469,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2464,18 +2482,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,28 +2535,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2550,31 +2568,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,28 +2601,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2616,31 +2634,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2649,28 +2667,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2682,66 +2700,132 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2816.96</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>29</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>135</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>165</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>167</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>135</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>161</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>162</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>163</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>164</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2888.9099999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>168</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>169</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>170</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2990,10 +3074,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -443,6 +443,18 @@
     <t>75.00</t>
   </si>
   <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -485,9 +497,6 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -515,7 +524,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:31 PM</t>
+    <t>Saturday, 30 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2443,7 +2452,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,7 +2478,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2568,7 +2577,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2655,10 +2664,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,49 +2792,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2888.9099999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>168</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>169</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>170</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>135</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>164</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2913.9099999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>171</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>172</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>173</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3084,10 +3126,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -206,6 +215,18 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -263,6 +284,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -332,6 +365,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -356,6 +395,15 @@
     <t>21.4500</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -416,9 +464,6 @@
     <t xml:space="preserve">ZIAFER  30 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -524,7 +569,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:33 PM</t>
+    <t>Saturday, 30 August, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1243,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1208,14 +1253,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1224,14 +1269,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1241,14 +1286,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1257,14 +1302,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1281,7 +1326,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1297,7 +1342,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1307,11 +1352,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1323,14 +1368,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1347,7 +1392,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1363,7 +1408,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1373,14 +1418,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1434,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1429,7 +1474,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1439,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1500,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,14 +1517,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1488,14 +1533,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1505,11 +1550,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1521,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,11 +1583,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1554,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1616,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1632,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1649,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1665,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,7 +1682,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1660,24 +1705,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1686,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1759,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1814,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1830,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,11 +1847,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1818,14 +1863,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1880,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1875,7 +1920,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1891,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,11 +1946,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1917,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,11 +1979,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1950,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +2012,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1983,14 +2028,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,14 +2045,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2016,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2078,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2094,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2073,7 +2118,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2127,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,11 +2144,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2115,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2139,7 +2184,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2155,24 +2200,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2188,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2342,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,28 +2391,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2379,20 +2424,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2419,24 +2464,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2452,21 +2497,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2478,31 +2523,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,28 +2589,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2577,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2617,24 +2662,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,31 +2688,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,28 +2754,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2742,28 +2787,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2775,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2808,66 +2853,231 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>177</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>160</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>69</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>145</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>57</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>69</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>179</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>181</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>32</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>69</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>145</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>32</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>69</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>183</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>165</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2913.9099999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>171</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>172</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>173</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>185</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>69</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>179</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3177.1700000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>186</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>187</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>188</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3131,10 +3341,35 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 6:58 PM</t>
+    <t>Saturday, 30 August, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:01 PM</t>
+    <t>Saturday, 30 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>3:3</t>
   </si>
   <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -384,6 +393,15 @@
   </si>
   <si>
     <t>0:4</t>
+  </si>
+  <si>
+    <t>ROYAL PROVITE 5000 AMP</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>500.0000</t>
   </si>
   <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
@@ -2233,7 +2251,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,13 +2317,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2316,7 +2334,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2349,7 +2367,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2365,7 +2383,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2379,10 +2397,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,11 +2459,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2563,13 +2581,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2596,24 +2614,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2709,10 +2727,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2745,7 +2763,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,7 +2805,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2837,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2853,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,11 +2888,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,11 +3020,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3035,49 +3053,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3177.1700000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>32</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>69</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>191</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>69</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>185</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>187</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>188</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3694.1700000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>192</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3366,10 +3450,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>327.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -272,7 +290,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>86.5000</t>
+    <t>259.5000</t>
   </si>
   <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
@@ -374,10 +392,16 @@
     <t>PARACETAMOL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>-5:-1</t>
+  </si>
+  <si>
     <t>34.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>221.0000</t>
+  </si>
+  <si>
+    <t>6:1</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -524,9 +548,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -539,6 +560,9 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
@@ -563,6 +587,9 @@
     <t>فرشاه فوكس</t>
   </si>
   <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -578,7 +605,16 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>15.00</t>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -587,7 +623,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:06 PM</t>
+    <t>Saturday, 30 August, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1462,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1443,7 +1479,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1459,7 +1495,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,14 +1505,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1485,14 +1521,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1525,7 +1561,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1535,14 +1571,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1551,14 +1587,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1568,14 +1604,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1584,14 +1620,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,11 +1637,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1617,14 +1653,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,11 +1670,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1650,14 +1686,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,14 +1703,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1683,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1700,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,31 +1752,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1766,11 +1802,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1782,20 +1818,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1806,7 +1842,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,7 +1884,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1865,11 +1901,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1905,7 +1941,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1921,7 +1957,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1954,7 +1990,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,14 +2016,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,11 +2033,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,11 +2099,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2079,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2139,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,7 +2155,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2136,7 +2172,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2188,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2169,7 +2205,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,11 +2231,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2211,28 +2247,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2251,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,11 +2297,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2277,31 +2313,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,31 +2346,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2350,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,31 +2412,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2478,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2495,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2561,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2541,7 +2577,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2627,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,28 +2676,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2673,31 +2709,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,31 +2742,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,28 +2775,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2772,31 +2808,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,31 +2841,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2874,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,7 +2907,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2884,18 +2920,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,31 +2940,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,28 +2973,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2970,31 +3006,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,31 +3039,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,28 +3072,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3069,31 +3105,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3102,66 +3138,198 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3694.1700000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>192</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>193</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>32</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>75</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>159</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>197</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>32</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>75</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>60</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>199</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>75</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>200</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>203</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>75</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>194</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>4342.1700000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>204</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>205</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>206</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3628,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -71,12 +71,21 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -548,15 +557,21 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>9:0</t>
   </si>
   <si>
@@ -605,6 +620,15 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -623,7 +647,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:16 PM</t>
+    <t>Saturday, 30 August, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1387,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1373,14 +1397,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1389,14 +1413,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1413,7 +1437,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1429,7 +1453,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1439,11 +1463,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1455,14 +1479,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1495,7 +1519,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1512,7 +1536,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1528,7 +1552,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1538,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1554,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1594,7 +1618,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1604,14 +1628,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1620,14 +1644,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1637,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1653,14 +1677,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1670,11 +1694,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1686,14 +1710,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1726,7 +1750,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1736,11 +1760,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1752,14 +1776,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,14 +1793,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1785,14 +1809,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1802,14 +1826,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1818,28 +1842,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1851,24 +1875,24 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1891,7 +1915,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1924,7 +1948,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1950,14 +1974,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1974,7 +1998,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1990,7 +2014,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2007,7 +2031,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2023,7 +2047,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2040,7 +2064,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2056,7 +2080,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2066,11 +2090,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2122,7 +2146,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2172,7 +2196,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2221,7 +2245,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2238,7 +2262,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2287,7 +2311,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2313,28 +2337,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2346,31 +2370,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2412,31 +2436,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2452,13 +2476,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2469,7 +2493,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2485,7 +2509,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2518,7 +2542,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2535,7 +2559,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,10 +2589,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2617,7 +2641,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2650,7 +2674,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2676,7 +2700,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2716,7 +2740,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2733,7 +2757,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2749,13 +2773,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2766,7 +2790,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2782,21 +2806,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2808,20 +2832,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2829,10 +2853,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,20 +2865,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2862,10 +2886,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,20 +2898,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2895,10 +2919,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,31 +2931,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,28 +2964,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2973,31 +2997,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,28 +3030,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3039,31 +3063,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3079,21 +3103,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3105,31 +3129,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,28 +3162,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3178,24 +3202,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,28 +3228,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3237,28 +3261,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3277,59 +3301,158 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>4342.1700000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>187</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>78</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>204</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>206</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>207</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>78</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>208</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>211</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>78</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>199</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4471.1700000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>212</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>213</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>214</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3648,10 +3771,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:36 PM</t>
+    <t>Saturday, 30 August, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -383,13 +383,13 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>5:9</t>
+    <t>4:9</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -647,7 +647,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:39 PM</t>
+    <t>Saturday, 30 August, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2361,7 +2361,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -3422,7 +3422,7 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="P72" s="13">
-        <v>4471.1700000000001</v>
+        <v>4511.1700000000001</v>
       </c>
       <c r="Q72" s="13"/>
     </row>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -647,7 +647,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:51 PM</t>
+    <t>Saturday, 30 August, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -437,6 +446,15 @@
     <t>500.0000</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -464,6 +482,15 @@
     <t>90.0900</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -512,6 +539,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8354:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
   </si>
   <si>
@@ -551,6 +590,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>75:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -569,12 +620,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>9:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -584,12 +638,6 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">صابون LUX </t>
   </si>
   <si>
@@ -614,6 +662,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>مسك بتشيز كيك</t>
   </si>
   <si>
@@ -647,7 +701,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 7:52 PM</t>
+    <t>Saturday, 30 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1793,14 +1847,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1809,14 +1863,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1826,14 +1880,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1842,14 +1896,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1859,14 +1913,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1875,28 +1929,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1908,24 +1962,24 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1948,7 +2002,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,14 +2012,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1981,7 +2035,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,14 +2045,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2007,14 +2061,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2031,7 +2085,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2047,7 +2101,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2064,7 +2118,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2080,7 +2134,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2097,7 +2151,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2113,7 +2167,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,11 +2177,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2139,14 +2193,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2179,7 +2233,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2189,14 +2243,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2205,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2229,7 +2283,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2278,7 +2332,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2295,7 +2349,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2344,7 +2398,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,14 +2408,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2370,31 +2424,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2403,31 +2457,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2436,14 +2490,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2507,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,31 +2523,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2509,13 +2563,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2526,7 +2580,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2542,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2559,7 +2613,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2575,7 +2629,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2592,7 +2646,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2608,7 +2662,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2622,10 +2676,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2634,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,11 +2738,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2700,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,7 +2787,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2750,11 +2804,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2766,14 +2820,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2837,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,31 +2853,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2839,21 +2893,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2865,31 +2919,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2911,7 +2965,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2944,7 +2998,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2955,7 +3009,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,28 +3018,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2997,31 +3051,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3030,28 +3084,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3063,28 +3117,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3096,7 +3150,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3109,18 +3163,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,31 +3183,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,31 +3216,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,31 +3249,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,28 +3282,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3261,28 +3315,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3294,7 +3348,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3307,15 +3361,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3327,31 +3381,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,28 +3414,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3393,66 +3447,330 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4511.1700000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>212</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>213</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>214</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>69</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>81</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>215</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>35</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>81</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>63</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>218</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>81</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>25</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>219</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>35</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>81</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>171</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>220</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>35</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>81</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>63</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>203</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>81</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>222</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>81</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>229</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>81</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>215</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4796.0500000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>230</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>231</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>232</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3786,10 +4104,50 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -536,7 +536,10 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -620,63 +623,63 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صابون LUX </t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>مسك بتشيز كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشط خشب </t>
+  </si>
+  <si>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صابون LUX </t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>مسك بتشيز كيك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مشط خشب </t>
-  </si>
-  <si>
-    <t>معجون اسنان سيجنال 120 مل عرض</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -701,7 +704,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:05 PM</t>
+    <t>Saturday, 30 August, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2926,7 +2929,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2943,7 +2946,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>55</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3018,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,11 +3038,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3084,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,11 +3104,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,11 +3137,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3167,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,7 +3186,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3216,7 +3219,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>203</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3266,7 +3269,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3365,11 +3368,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3421,7 +3424,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3652,7 +3655,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,11 +3698,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,13 +3743,13 @@
     </row>
     <row r="80" ht="24.75" customHeight="1">
       <c r="P80" s="13">
-        <v>4796.0500000000002</v>
+        <v>4814.8800000000001</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c t="s" r="A81" s="14">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3754,13 +3757,13 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c t="s" r="G81" s="15">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
       <c t="s" r="K81" s="17">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -506,6 +515,9 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -704,7 +716,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:07 PM</t>
+    <t>Saturday, 30 August, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2083,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2121,7 +2133,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2137,7 +2149,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2154,7 +2166,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2170,7 +2182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2187,7 +2199,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2203,7 +2215,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2213,11 +2225,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2269,7 +2281,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2279,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2319,7 +2331,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2368,7 +2380,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2385,7 +2397,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2444,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2460,31 +2472,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2493,31 +2505,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2559,31 +2571,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2599,13 +2611,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2616,7 +2628,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2632,7 +2644,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2649,7 +2661,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2665,7 +2677,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2698,7 +2710,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2715,7 +2727,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2748,7 +2760,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,7 +2790,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2807,11 +2819,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2830,7 +2842,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2906,11 +2918,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>176</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2988,31 +3000,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,28 +3033,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3219,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3269,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3467,11 +3479,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>69</v>
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,11 +3512,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3556,7 +3568,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3582,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3731,49 +3743,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4814.8800000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>229</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>230</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>81</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>231</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>233</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>234</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>81</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>219</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5080.8800000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4147,10 +4225,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -242,9 +254,6 @@
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>101.00</t>
   </si>
   <si>
@@ -410,6 +419,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -437,9 +452,6 @@
     <t>0:17</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>28.2000</t>
   </si>
   <si>
@@ -533,6 +545,12 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -716,7 +734,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:10 PM</t>
+    <t>Saturday, 30 August, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1522,7 +1540,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1532,14 +1550,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1548,14 +1566,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1588,7 +1606,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1598,11 +1616,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1614,14 +1632,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1631,14 +1649,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1647,14 +1665,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1671,7 +1689,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1687,7 +1705,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1713,14 +1731,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1737,7 +1755,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1746,14 +1764,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1763,14 +1781,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1796,7 +1814,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1819,7 +1837,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1829,11 +1847,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,14 +1880,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1895,14 +1913,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1935,7 +1953,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1968,7 +1986,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1984,21 +2002,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2010,24 +2028,24 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2050,7 +2068,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2134,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2166,7 +2184,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2182,7 +2200,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2199,7 +2217,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2215,7 +2233,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2232,7 +2250,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2248,7 +2266,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2314,7 +2332,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2364,7 +2382,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2431,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2430,7 +2448,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2479,7 +2497,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,31 +2523,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,31 +2589,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2604,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,31 +2688,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,7 +2820,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,11 +2903,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2908,7 +2926,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,11 +3002,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3000,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,28 +3084,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3099,31 +3117,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,31 +3150,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,28 +3183,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3198,28 +3216,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3231,31 +3249,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,28 +3282,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3297,31 +3315,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3337,24 +3355,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,28 +3381,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3396,31 +3414,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,28 +3447,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3462,31 +3480,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,28 +3513,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3528,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,31 +3579,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3601,24 +3619,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3640,18 +3658,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,28 +3678,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3693,31 +3711,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,28 +3744,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3766,21 +3784,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3792,66 +3810,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5080.8800000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>84</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>235</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>84</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>240</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>84</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>225</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5197.6999999999998</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>241</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>242</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>243</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4352,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -179,78 +179,81 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -359,12 +362,27 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -446,6 +464,24 @@
     <t>6:1</t>
   </si>
   <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -488,12 +524,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -617,12 +647,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -653,10 +677,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -734,7 +761,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:12 PM</t>
+    <t>Saturday, 30 August, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1986,7 +2013,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,7 +2022,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2012,11 +2039,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2028,28 +2055,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2082,7 +2109,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2094,7 +2121,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2111,11 +2138,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2127,7 +2154,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2144,11 +2171,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2193,7 +2220,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2210,11 +2237,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2226,7 +2253,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2243,11 +2270,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>28</v>
@@ -2259,7 +2286,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2276,11 +2303,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,11 +2336,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2325,7 +2352,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2342,11 +2369,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2398,7 +2425,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2415,7 +2442,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2431,7 +2458,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2448,7 +2475,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2464,7 +2491,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2481,7 +2508,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2497,7 +2524,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2514,7 +2541,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2530,7 +2557,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2556,7 +2583,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2573,7 +2600,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2602,18 +2629,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2655,31 +2682,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,31 +2715,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2721,31 +2748,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2754,28 +2781,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2827,13 +2854,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2844,7 +2871,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2860,7 +2887,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2877,7 +2904,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2893,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2907,10 +2934,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2952,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3002,11 +3029,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,7 +3111,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3101,11 +3128,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3141,7 +3168,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3183,31 +3210,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3216,28 +3243,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3249,31 +3276,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3282,28 +3309,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3315,28 +3342,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3348,31 +3375,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,31 +3408,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,31 +3441,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,24 +3474,24 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3487,24 +3514,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,28 +3540,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3546,7 +3573,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3559,18 +3586,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,7 +3606,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3592,18 +3619,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3645,31 +3672,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3678,28 +3705,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3711,7 +3738,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3724,18 +3751,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,28 +3771,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3777,31 +3804,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,28 +3837,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3843,31 +3870,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,28 +3903,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3909,66 +3936,198 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5197.6999999999998</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>239</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>39</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>85</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>67</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>240</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>241</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>85</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>242</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>243</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>244</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>245</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>85</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>246</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>249</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>85</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>234</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5346.4549999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>250</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>251</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>252</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4367,10 +4526,30 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:16 PM</t>
+    <t>Saturday, 30 August, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>51.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>59.7600</t>
   </si>
   <si>
@@ -224,15 +233,9 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -389,6 +392,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -614,6 +626,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
   </si>
   <si>
@@ -644,57 +665,63 @@
     <t>جل صبار للبشره</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>75:0</t>
+    <t>74:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
     <t xml:space="preserve">صابون LUX </t>
   </si>
   <si>
@@ -725,6 +752,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>مسك بتشيز كيك</t>
   </si>
   <si>
@@ -761,7 +791,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:17 PM</t>
+    <t>Saturday, 30 August, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1465,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1445,11 +1475,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1461,14 +1491,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1485,7 +1515,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1501,7 +1531,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1511,14 +1541,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1527,14 +1557,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1551,7 +1581,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1600,7 +1630,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1610,14 +1640,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1650,7 +1680,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1666,7 +1696,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1676,14 +1706,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1709,14 +1739,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1749,7 +1779,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1765,7 +1795,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1775,14 +1805,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1791,14 +1821,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1815,7 +1845,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,14 +1871,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1914,7 +1944,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1930,7 +1960,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1940,14 +1970,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1973,14 +2003,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,14 +2069,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,28 +2085,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2088,28 +2118,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,11 +2465,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,11 +2498,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2517,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2583,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2616,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,7 +2679,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2682,31 +2712,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2722,7 +2752,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2762,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,31 +2778,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,31 +2811,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,31 +2844,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,31 +2877,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,31 +2943,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +2993,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2986,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3003,7 +3033,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3019,7 +3049,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3151,7 +3181,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3168,7 +3198,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3184,7 +3214,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3250,7 +3280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,31 +3372,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,31 +3405,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,31 +3438,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,31 +3471,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,31 +3504,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,31 +3537,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>219</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,31 +3570,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,31 +3603,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>222</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,31 +3636,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,31 +3669,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,31 +3702,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3735,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,31 +3768,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,31 +3801,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,31 +3867,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,31 +3900,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,31 +3933,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,28 +3966,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3969,31 +3999,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,31 +4032,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,31 +4065,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4075,59 +4105,191 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5346.4549999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>249</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>43</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>86</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>70</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>250</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>251</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>86</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>252</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>255</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>86</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>256</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>259</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>86</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>243</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5617.9849999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>260</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>261</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>262</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4546,10 +4708,30 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:19 PM</t>
+    <t>Saturday, 30 August, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -47,195 +47,204 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>327.00</t>
-  </si>
-  <si>
-    <t>327.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -344,6 +350,24 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -497,13 +521,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:17</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>42.3000</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>ROYAL PROVITE 5000 AMP</t>
@@ -527,9 +551,6 @@
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>21.4500</t>
   </si>
   <si>
@@ -668,15 +689,12 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>74:0</t>
+    <t>73:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -707,9 +725,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -752,7 +767,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>39:0</t>
   </si>
   <si>
     <t>مسك بتشيز كيك</t>
@@ -791,7 +806,13 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:24 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>Saturday, 30 August, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1482,7 +1503,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1541,11 +1562,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1574,11 +1595,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1656,7 +1677,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1673,11 +1694,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1706,11 +1727,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1722,7 +1743,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1739,11 +1760,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1772,14 +1793,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1838,11 +1859,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1875,10 +1896,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1887,7 +1908,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1904,11 +1925,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2007,10 +2028,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2118,31 +2139,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2184,7 +2205,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2201,11 +2222,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2217,7 +2238,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2234,11 +2255,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,7 +2304,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,31 +2799,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2844,31 +2865,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2884,24 +2905,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2910,31 +2931,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,31 +2964,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>81</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,31 +3030,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3273,7 +3294,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,7 +3360,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3412,7 +3433,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,7 +3476,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3478,21 +3499,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3504,31 +3525,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3544,13 +3565,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3558,10 +3579,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,28 +3591,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3603,31 +3624,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,31 +3657,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>225</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,31 +3690,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,31 +3723,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,31 +3756,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,31 +3789,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,31 +3822,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,31 +3855,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,28 +3888,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3900,31 +3921,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,28 +3954,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3966,31 +3987,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,28 +4020,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4039,24 +4060,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,31 +4086,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,31 +4119,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,31 +4152,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,28 +4185,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4204,21 +4225,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4230,66 +4251,165 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5617.9849999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>260</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>88</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>261</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>262</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>264</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>88</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>248</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>88</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>202</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5897.9650000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>267</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>268</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>269</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4728,10 +4848,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -332,6 +344,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -527,9 +548,6 @@
     <t>42.3000</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>ROYAL PROVITE 5000 AMP</t>
   </si>
   <si>
@@ -722,6 +740,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -764,6 +788,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -812,7 +842,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:25 PM</t>
+    <t>Saturday, 30 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,7 +1813,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,11 +1823,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1809,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1833,7 +1863,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1849,7 +1879,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,11 +1889,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1875,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1915,7 +1945,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1925,14 +1955,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +1971,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,7 +1988,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1981,7 +2011,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,11 +2021,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2097,7 +2127,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2113,7 +2143,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,20 +2169,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2179,21 +2209,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,7 +2268,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2255,11 +2285,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2295,7 +2325,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2311,7 +2341,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2351,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2542,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,11 +2648,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2750,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2823,7 +2853,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2849,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2865,31 +2895,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2938,24 +2968,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,20 +2994,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2988,7 +3018,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,31 +3027,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>172</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3037,13 +3067,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3054,7 +3084,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3070,7 +3100,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3103,24 +3133,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,10 +3279,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,11 +3374,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3360,7 +3390,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3377,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,7 +3456,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3443,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>214</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,20 +3588,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3598,24 +3628,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,31 +3654,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3664,21 +3694,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3690,31 +3720,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>214</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,31 +3753,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>231</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,31 +3786,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,7 +3819,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3802,18 +3832,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,31 +3852,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,7 +3885,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3868,18 +3898,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>101</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,31 +3918,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,28 +3984,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3987,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,28 +4050,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4053,31 +4083,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,28 +4116,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4119,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>214</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,31 +4182,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,7 +4215,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4198,18 +4228,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,7 +4248,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4231,15 +4261,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4251,31 +4281,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,28 +4314,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4317,28 +4347,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4363,53 +4393,152 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>270</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>92</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>271</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>274</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>92</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>256</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>275</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>276</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>92</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>208</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5897.9650000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>267</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>268</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>269</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5940.5299999999997</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>277</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>278</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>279</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4863,10 +4992,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -107,12 +107,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -182,6 +191,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -224,9 +245,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -419,6 +437,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -440,12 +467,6 @@
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -689,9 +710,6 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -842,7 +860,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:27 PM</t>
+    <t>Saturday, 30 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1699,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1691,11 +1709,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1731,7 +1749,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1747,7 +1765,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1757,11 +1775,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1813,7 +1831,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1879,7 +1897,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1929,7 +1947,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1988,11 +2006,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,7 +2072,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2077,7 +2095,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2110,7 +2128,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2202,31 +2220,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,11 +2270,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2268,20 +2286,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2292,7 +2310,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2308,7 +2326,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2341,7 +2359,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,7 +2385,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2424,7 +2442,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2440,7 +2458,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2457,7 +2475,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2473,7 +2491,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2490,7 +2508,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2506,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2523,7 +2541,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2539,7 +2557,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2572,7 +2590,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,11 +2633,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2655,7 +2673,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2689,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2688,7 +2706,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2704,7 +2722,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2737,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,7 +2765,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2770,7 +2788,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2787,7 +2805,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2803,7 +2821,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2820,7 +2838,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2836,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2928,7 +2946,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2945,11 +2963,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2961,28 +2979,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>169</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,31 +3045,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,28 +3078,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,28 +3144,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3159,31 +3177,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,31 +3243,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,11 +3293,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,7 +3349,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3425,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3529,7 +3547,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3562,7 +3580,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>213</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,28 +3705,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3720,31 +3738,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,28 +3771,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3799,18 +3817,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3826,13 +3844,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3840,10 +3858,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>237</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,28 +3870,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3885,31 +3903,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,31 +3936,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>243</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>244</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,31 +3969,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,31 +4002,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,31 +4035,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,31 +4068,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,31 +4101,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,28 +4134,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4149,31 +4167,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4182,31 +4200,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4222,24 +4240,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4255,24 +4273,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4288,24 +4306,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,31 +4332,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,28 +4365,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4380,31 +4398,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4420,21 +4438,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4446,28 +4464,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4479,66 +4497,165 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>276</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>98</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>277</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>280</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>98</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>262</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>281</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>282</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>98</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>215</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5940.5299999999997</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>277</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>278</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>279</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>6010.8199999999997</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>283</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>284</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>285</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5007,10 +5124,25 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:28 PM</t>
+    <t>Saturday, 30 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -629,6 +629,9 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -818,6 +821,15 @@
     <t>39:0</t>
   </si>
   <si>
+    <t>مس كستالني</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>مسك بتشيز كيك</t>
   </si>
   <si>
@@ -860,7 +872,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:29 PM</t>
+    <t>Saturday, 30 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3514,7 +3526,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3547,7 +3559,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,11 +3569,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,31 +3783,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3910,7 +3922,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +3998,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4009,7 +4021,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,7 +4047,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>250</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,7 +4080,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4108,7 +4120,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4141,7 +4153,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,11 +4163,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4174,7 +4186,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4200,7 +4212,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4273,7 +4285,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4471,7 +4483,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4493,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4497,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,11 +4526,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,49 +4625,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>284</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>98</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>263</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>286</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>98</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>216</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>6010.8199999999997</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>283</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>284</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>285</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6043.8199999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>287</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>288</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>289</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5139,10 +5217,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -872,7 +872,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:53 PM</t>
+    <t>Saturday, 30 August, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -143,6 +143,9 @@
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
     <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>327.00</t>
   </si>
   <si>
@@ -371,6 +371,18 @@
     <t>13.3650</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -401,9 +413,6 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -695,9 +704,6 @@
     <t>168.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZIAFER  30 TAB</t>
   </si>
   <si>
@@ -749,6 +755,9 @@
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -839,27 +848,30 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين 50 مل</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -872,7 +884,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 8:57 PM</t>
+    <t>Saturday, 30 August, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1789,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1787,11 +1799,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1909,7 +1921,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2140,7 +2152,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2536,13 +2548,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2553,7 +2565,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2612,11 +2624,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,11 +2657,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2661,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,11 +2690,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2694,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2734,7 +2746,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2751,7 +2763,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2767,7 +2779,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2777,7 +2789,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2800,7 +2812,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2810,7 +2822,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2833,7 +2845,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2866,7 +2878,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2965,7 +2977,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2982,7 +2994,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3031,7 +3043,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3090,28 +3102,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3123,31 +3135,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3156,31 +3168,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3196,7 +3208,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3213,7 +3225,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3229,24 +3241,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3262,24 +3274,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3295,13 +3307,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3312,7 +3324,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3328,7 +3340,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3338,14 +3350,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3371,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3387,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,7 +3456,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,7 +3486,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3503,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3526,7 +3538,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,11 +3548,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3569,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3602,11 +3614,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3625,7 +3637,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3724,7 +3736,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3741,7 +3753,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3823,24 +3835,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3849,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3866,11 +3878,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3922,7 +3934,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3948,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3981,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4002,10 +4014,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>244</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4087,7 +4099,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4120,7 +4132,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>111</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4163,14 +4175,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,11 +4208,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4229,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4262,14 +4274,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,14 +4307,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4344,14 +4356,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4384,7 +4396,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4460,14 +4472,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,14 +4505,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4516,7 +4528,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4526,11 +4538,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4542,14 +4554,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,11 +4571,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,11 +4604,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4608,14 +4620,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>91</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,14 +4637,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4641,14 +4653,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,11 +4670,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4691,49 +4703,115 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>288</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>98</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>266</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>290</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>98</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>219</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6043.8199999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>287</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>288</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>289</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6388.8199999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>291</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>292</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>293</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5227,10 +5305,20 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -104,567 +104,591 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>259.5000</t>
+  </si>
+  <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVA-C-N 20 TAB</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>-5:-1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>221.0000</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>42.3000</t>
+  </si>
+  <si>
+    <t>ROYAL PROVITE 5000 AMP</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>500.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>90.0900</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>327.00</t>
-  </si>
-  <si>
-    <t>327.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:5</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>259.5000</t>
-  </si>
-  <si>
-    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MELOCAM 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.3850</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVA-C-N 20 TAB</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:9</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>PARACETAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>-5:-1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>221.0000</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>42.3000</t>
-  </si>
-  <si>
-    <t>ROYAL PROVITE 5000 AMP</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>500.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
-  </si>
-  <si>
-    <t>21.4500</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>90.0900</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>THYROXINE 100MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TRIMED FLU 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -770,15 +794,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -884,7 +911,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:17 PM</t>
+    <t>Saturday, 30 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1684,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1674,7 +1701,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -2202,7 +2229,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2350,7 +2377,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2383,7 +2410,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,7 +2502,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2492,11 +2519,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,31 +2568,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2607,31 +2634,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2673,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2706,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,11 +2750,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2739,7 +2766,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2756,11 +2783,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2915,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2904,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3020,11 +3047,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3036,14 +3063,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3053,11 +3080,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,28 +3162,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3185,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3201,31 +3228,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3234,28 +3261,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3267,31 +3294,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,31 +3327,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3333,31 +3360,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3366,28 +3393,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3432,31 +3459,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3498,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3581,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3614,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3647,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3663,7 +3690,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3680,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3713,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,7 +3756,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3746,11 +3773,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3762,7 +3789,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3779,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3812,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3861,28 +3888,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3894,28 +3921,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3927,31 +3954,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,28 +3987,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3993,31 +4020,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,7 +4053,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4043,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>246</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4059,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4125,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>254</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4158,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4175,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4191,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,7 +4284,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4274,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4307,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>87</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4323,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4340,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4356,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4373,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4406,11 +4433,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4422,7 +4449,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4439,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,10 +4503,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4495,7 +4522,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4505,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4538,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4571,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4608,10 +4635,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4627,7 +4654,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4641,10 +4668,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4686,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,11 +4730,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4719,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4752,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,49 +4796,214 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>91</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>98</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>288</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6388.8199999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
         <v>291</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>98</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>292</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>293</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>294</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>295</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>98</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>118</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>296</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>297</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>98</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>275</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>298</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>299</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>98</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>227</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6938.8199999999997</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>300</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>301</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>302</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5507,35 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -548,6 +548,12 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -911,7 +917,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:23 PM</t>
+    <t>Saturday, 30 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3301,21 +3307,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3340,18 +3346,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3360,31 +3366,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3426,31 +3432,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,31 +3465,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,31 +3498,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3565,7 +3571,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3697,7 +3703,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3723,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3862,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3934,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3954,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3977,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4060,24 +4066,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4119,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>34</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4159,7 +4165,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4239,10 +4245,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4291,7 +4297,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4307,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4334,14 +4340,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>262</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>138</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4390,7 +4396,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4406,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,7 +4528,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4538,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,14 +4554,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4588,7 +4594,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,14 +4637,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,7 +4653,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4687,7 +4693,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4720,7 +4726,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,14 +4752,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4796,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,14 +4835,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4868,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -4961,49 +4967,82 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>300</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>301</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>98</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>229</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6938.8199999999997</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>300</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>301</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6976.8199999999997</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
         <v>302</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>303</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>304</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5532,10 +5571,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -743,6 +752,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -794,69 +806,72 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>سويت كوكو</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صابون LUX </t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>سويت كوكو</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صابون LUX </t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>فازلين بيور وسط</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -917,7 +932,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:26 PM</t>
+    <t>Saturday, 30 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1969,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1987,7 +2002,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1997,11 +2012,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2086,7 +2101,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2096,14 +2111,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2162,7 +2177,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2185,7 +2200,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2218,7 +2233,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2334,7 +2349,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,21 +2365,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2376,20 +2391,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2400,7 +2415,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2416,7 +2431,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2525,11 +2540,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2598,7 +2613,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2631,7 +2646,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2647,13 +2662,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2664,7 +2679,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2680,13 +2695,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2697,7 +2712,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2713,7 +2728,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2730,7 +2745,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,7 +2761,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2779,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,11 +2870,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,11 +2903,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2911,7 +2926,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2928,7 +2943,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2944,7 +2959,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2961,7 +2976,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2977,7 +2992,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3010,7 +3025,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,7 +3035,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3043,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3076,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,11 +3101,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3190,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3192,7 +3207,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3241,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,11 +3332,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3333,28 +3348,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3366,31 +3381,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,31 +3414,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>190</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3439,13 +3454,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3456,7 +3471,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3472,24 +3487,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3505,24 +3520,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3538,13 +3553,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3555,7 +3570,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3571,7 +3586,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,7 +3702,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,7 +3732,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3769,7 +3784,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,11 +3794,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3868,7 +3883,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,7 +3992,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4000,7 +4015,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4017,7 +4032,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,14 +4091,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4092,31 +4107,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4132,17 +4147,17 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4165,24 +4180,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,28 +4206,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4224,20 +4239,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4245,10 +4260,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,24 +4279,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,31 +4305,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,7 +4338,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4336,18 +4351,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,31 +4371,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4389,7 +4404,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4402,18 +4417,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4422,31 +4437,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,31 +4470,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,28 +4503,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4521,31 +4536,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,21 +4576,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4587,31 +4602,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,28 +4635,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4653,31 +4668,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4693,13 +4708,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4707,7 +4722,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4719,31 +4734,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4759,13 +4774,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4792,24 +4807,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4818,28 +4833,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4851,31 +4866,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4884,28 +4899,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4917,31 +4932,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4950,28 +4965,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -4983,66 +4998,132 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>304</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>101</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>281</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>305</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>306</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>101</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>232</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6976.8199999999997</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>302</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>303</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>304</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>7053.5900000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>307</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>308</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>309</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5576,10 +5657,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -437,15 +446,15 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -491,6 +500,9 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
@@ -500,6 +512,21 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>28.5600</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -647,6 +674,15 @@
     <t>90.0900</t>
   </si>
   <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -674,6 +710,9 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -704,6 +743,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -722,9 +770,6 @@
     <t>50.4900</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -821,9 +866,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -932,7 +974,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:34 PM</t>
+    <t>Saturday, 30 August, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,7 +1813,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1788,7 +1830,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1804,7 +1846,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1814,11 +1856,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1830,14 +1872,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1847,14 +1889,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1863,14 +1905,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1903,7 +1945,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1936,7 +1978,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1946,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1962,14 +2004,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2002,7 +2044,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2035,7 +2077,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2045,11 +2087,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2061,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2078,14 +2120,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2094,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2134,7 +2176,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2144,14 +2186,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2202,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2219,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,7 +2252,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2233,7 +2275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2266,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,14 +2318,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2309,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2325,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2342,14 +2384,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2400,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2382,7 +2424,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2398,21 +2440,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2424,20 +2466,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2448,7 +2490,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2464,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2530,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2573,11 +2615,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2589,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,14 +2648,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2622,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2646,7 +2688,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2662,7 +2704,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2679,7 +2721,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,13 +2737,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2712,7 +2754,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2728,13 +2770,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2745,7 +2787,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2761,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2778,7 +2820,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2794,7 +2836,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2827,7 +2869,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,11 +2879,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2853,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,11 +2912,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2886,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,11 +2945,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2926,7 +2968,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2952,14 +2994,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,11 +3011,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2985,14 +3027,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3018,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,11 +3077,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3051,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3110,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,11 +3143,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3117,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,11 +3176,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3150,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,11 +3209,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3183,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3242,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,31 +3258,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,14 +3291,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,11 +3308,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3282,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3348,14 +3390,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3381,28 +3423,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3414,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,31 +3489,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,28 +3522,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3513,31 +3555,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,31 +3588,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,31 +3621,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,28 +3654,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3645,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3685,13 +3727,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3702,7 +3744,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3718,7 +3760,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3735,7 +3777,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3751,7 +3793,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3784,7 +3826,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3850,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,11 +3902,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3876,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,11 +3935,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3909,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4008,7 +4050,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4025,11 +4067,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4048,7 +4090,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>237</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4107,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,31 +4182,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,28 +4215,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4206,31 +4248,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,31 +4281,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,31 +4314,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,31 +4347,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4345,24 +4387,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,31 +4413,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,31 +4446,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,31 +4479,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,31 +4512,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,28 +4545,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4536,31 +4578,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,31 +4611,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,31 +4644,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,31 +4677,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,31 +4710,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>90</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,31 +4743,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,31 +4776,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,28 +4809,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4807,24 +4849,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4840,13 +4882,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4854,10 +4896,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,28 +4908,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4899,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4939,13 +4981,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4956,7 +4998,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4972,24 +5014,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4998,28 +5040,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5031,31 +5073,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>281</v>
+        <v>30</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5064,66 +5106,297 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>47</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>104</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>248</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>47</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>104</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>87</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>97</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>104</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>309</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>7053.5900000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>307</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>308</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>309</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>312</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>104</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>313</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>315</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>316</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>104</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>124</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>317</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>318</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>104</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>295</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>320</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>104</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>248</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7336.1499999999996</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>321</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>322</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>323</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5667,10 +5940,45 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:39 PM</t>
+    <t>Saturday, 30 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -506,12 +515,21 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
   </si>
   <si>
@@ -974,7 +992,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:44 PM</t>
+    <t>Saturday, 30 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2572,7 +2590,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2605,7 +2623,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2648,11 +2666,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2721,7 +2739,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2737,7 +2755,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2754,7 +2772,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2770,13 +2788,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2787,7 +2805,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2803,13 +2821,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2820,7 +2838,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2836,7 +2854,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2853,7 +2871,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2869,7 +2887,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2902,7 +2920,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,11 +2963,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,11 +2996,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3067,7 +3085,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3084,7 +3102,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3100,7 +3118,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3117,7 +3135,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3133,7 +3151,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3166,7 +3184,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,7 +3194,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3199,7 +3217,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3265,24 +3283,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,11 +3326,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3331,24 +3349,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3397,7 +3415,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3414,7 +3432,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3430,7 +3448,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3447,7 +3465,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,7 +3481,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,7 +3507,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3506,7 +3524,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3529,7 +3547,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,28 +3573,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>205</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3694,24 +3712,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3727,7 +3745,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3744,7 +3762,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,7 +3778,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3793,24 +3811,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,14 +3870,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3887,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,7 +3960,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3958,7 +3976,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3972,7 +3990,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,11 +4019,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4052,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4050,7 +4068,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4067,11 +4085,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4118,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4149,7 +4167,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4250,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,7 +4316,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4321,7 +4339,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4338,7 +4356,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4354,7 +4372,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,11 +4382,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>111</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4420,21 +4438,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4446,31 +4464,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,11 +4514,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4512,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4547,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,11 +4580,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,7 +4719,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>111</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>283</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,11 +4877,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4875,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4910,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4941,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>93</v>
@@ -4974,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>93</v>
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5075,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5073,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5174,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5205,14 +5223,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,14 +5240,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5273,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5271,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,14 +5306,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5321,11 +5339,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5337,14 +5355,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,49 +5372,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>323</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>324</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>104</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>301</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>325</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>326</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>104</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>254</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q122" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7336.1499999999996</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>322</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>323</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7365.9099999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>327</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>328</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>329</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6059,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -992,7 +992,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:48 PM</t>
+    <t>Saturday, 30 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -992,7 +992,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 9:50 PM</t>
+    <t>Saturday, 30 August, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -500,6 +509,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -590,9 +602,6 @@
     <t>4:9</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -674,6 +683,18 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
   </si>
   <si>
@@ -893,9 +914,6 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">صابون LUX </t>
   </si>
   <si>
@@ -992,7 +1010,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:10 PM</t>
+    <t>Saturday, 30 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1650,7 +1668,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1659,14 +1677,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1676,14 +1694,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1692,14 +1710,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1716,7 +1734,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1732,7 +1750,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1742,14 +1760,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1758,14 +1776,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1782,7 +1800,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1798,7 +1816,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1808,14 +1826,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1848,7 +1866,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1864,7 +1882,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1881,7 +1899,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1897,7 +1915,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1940,14 +1958,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1956,14 +1974,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1980,7 +1998,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1996,7 +2014,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2013,7 +2031,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2029,7 +2047,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2079,7 +2097,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2095,7 +2113,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2112,7 +2130,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2128,7 +2146,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2211,7 +2229,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2270,14 +2288,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2343,7 +2361,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2359,7 +2377,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2475,7 +2493,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2491,24 +2509,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2517,20 +2535,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2541,7 +2559,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2585,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2623,7 +2641,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2656,7 +2674,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2689,7 +2707,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2748,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2772,7 +2790,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2788,7 +2806,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2805,7 +2823,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2821,13 +2839,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2838,7 +2856,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2854,13 +2872,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2871,7 +2889,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2887,7 +2905,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2904,7 +2922,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2920,7 +2938,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2937,7 +2955,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2953,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2963,14 +2981,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3014,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3029,14 +3047,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3078,14 +3096,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3118,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3135,7 +3153,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3151,7 +3169,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3168,7 +3186,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3184,7 +3202,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3250,7 +3268,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3283,7 +3301,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,14 +3311,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,14 +3344,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,31 +3360,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,14 +3410,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3408,31 +3426,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3448,7 +3466,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,14 +3509,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,14 +3542,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3608,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,31 +3657,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3672,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3705,31 +3723,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,31 +3756,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3771,31 +3789,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,31 +3822,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3870,31 +3888,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3943,7 +3961,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3986,14 +4004,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4009,7 +4027,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4068,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4151,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4167,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4233,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4306,7 +4324,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4367,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4372,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4400,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>174</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4464,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4497,31 +4515,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4530,31 +4548,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4563,31 +4581,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4603,13 +4621,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4617,10 +4635,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4629,31 +4647,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,31 +4680,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,31 +4713,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>281</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,31 +4746,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4761,31 +4779,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,31 +4812,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>288</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,31 +4845,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4867,24 +4885,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,31 +4911,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4926,31 +4944,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4959,31 +4977,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,31 +5010,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5025,31 +5043,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5058,31 +5076,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5098,24 +5116,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5131,24 +5149,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,31 +5175,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5197,24 +5215,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5223,31 +5241,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5263,24 +5281,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>47</v>
+        <v>314</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,31 +5307,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5322,31 +5340,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>50</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5355,31 +5373,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5388,31 +5406,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5421,66 +5439,165 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7365.9099999999999</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>327</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
         <v>328</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>107</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>130</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>329</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>330</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>107</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>307</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>331</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>332</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>107</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>261</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7478.4099999999999</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>333</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>334</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>335</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6069,10 +6186,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>47.8800</t>
   </si>
   <si>
+    <t>DG-WASH FLUORIDE MOUTH WASH 125ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -407,6 +416,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GOLDEN FER-F 30 CHEW. TABS.</t>
   </si>
   <si>
@@ -431,7 +446,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>259.5000</t>
+    <t>346.0000</t>
   </si>
   <si>
     <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
@@ -896,9 +911,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>19:0</t>
   </si>
   <si>
@@ -932,12 +944,6 @@
     <t>فرشه للشعر</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1010,7 +1016,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:11 PM</t>
+    <t>Saturday, 30 August, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2443,7 +2449,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2486,14 +2492,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2526,7 +2532,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2542,21 +2548,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2568,20 +2574,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2592,7 +2598,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2608,7 +2614,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2674,7 +2680,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2707,7 +2713,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2750,11 +2756,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2783,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2823,7 +2829,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2839,7 +2845,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2856,7 +2862,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2872,24 +2878,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,31 +2937,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3014,7 +3020,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3037,7 +3043,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3080,11 +3086,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3146,11 +3152,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3169,7 +3175,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3183,7 +3189,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3212,11 +3218,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,11 +3284,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3311,11 +3317,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3426,31 +3432,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3476,11 +3482,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3492,20 +3498,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3516,7 +3522,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3575,14 +3581,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3674,7 +3680,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3697,7 +3703,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,28 +3729,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3777,10 +3783,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,31 +3795,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3822,31 +3828,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,31 +3861,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,31 +3894,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,31 +3960,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4037,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,7 +4125,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4136,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,11 +4175,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4192,7 +4198,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4225,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4268,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4307,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4340,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4390,7 +4396,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,7 +4472,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4489,7 +4495,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,11 +4505,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,20 +4620,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4654,24 +4660,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,28 +4686,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4713,31 +4719,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4753,21 +4759,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4779,31 +4785,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,31 +4818,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,31 +4851,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,7 +4884,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4891,18 +4897,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>114</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4918,24 +4924,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,7 +4950,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4957,18 +4963,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,31 +4983,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,28 +5049,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5076,31 +5082,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,28 +5115,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>22</v>
@@ -5142,31 +5148,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,28 +5181,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>22</v>
@@ -5208,31 +5214,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5248,21 +5254,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>22</v>
@@ -5274,31 +5280,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,28 +5313,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>22</v>
@@ -5340,31 +5346,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>50</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,28 +5379,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5413,24 +5419,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,28 +5445,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>90</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>22</v>
@@ -5472,31 +5478,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>130</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5505,28 +5511,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>22</v>
@@ -5538,66 +5544,132 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q125" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>331</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>332</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>110</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>96</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>333</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>334</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>110</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>266</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q127" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7478.4099999999999</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>333</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>334</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7637.9099999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
         <v>335</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>336</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>337</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6201,10 +6273,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -362,9 +374,6 @@
     <t>EPICEPHIN 1GM I.V. VIAL</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -620,6 +629,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -794,9 +809,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -1016,7 +1028,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:13 PM</t>
+    <t>Saturday, 30 August, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1740,7 +1752,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1806,7 +1818,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1822,7 +1834,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1832,14 +1844,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1872,7 +1884,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1888,7 +1900,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1898,14 +1910,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1931,14 +1943,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2004,7 +2016,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2020,7 +2032,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2103,7 +2115,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2119,7 +2131,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2129,11 +2141,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2235,7 +2247,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2251,7 +2263,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2317,7 +2329,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2499,7 +2511,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,20 +2586,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2614,24 +2626,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2746,7 +2758,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2862,7 +2874,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2878,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2944,13 +2956,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2961,7 +2973,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2977,13 +2989,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2994,7 +3006,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3010,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3027,7 +3039,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3043,7 +3055,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3060,7 +3072,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3076,7 +3088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3241,7 +3253,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3258,7 +3270,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3291,7 +3303,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3340,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3406,7 +3418,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3498,31 +3510,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,31 +3543,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3604,7 +3616,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3621,7 +3633,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3637,7 +3649,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3654,7 +3666,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3703,7 +3715,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3736,7 +3748,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,28 +3807,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3828,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,10 +3861,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,31 +3873,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3894,31 +3906,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,31 +3939,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,31 +3972,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,28 +4038,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4264,7 +4276,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4281,7 +4293,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4297,7 +4309,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4462,7 +4474,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,7 +4550,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4561,7 +4573,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,31 +4698,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4719,31 +4731,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4759,24 +4771,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>54</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4792,24 +4804,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,31 +4830,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,20 +4863,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4872,10 +4884,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4891,24 +4903,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,31 +4929,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,31 +4962,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>117</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>300</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>155</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,31 +5127,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,31 +5160,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,31 +5193,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,31 +5226,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5247,31 +5259,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,31 +5292,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,31 +5325,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5353,24 +5365,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>54</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,31 +5391,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,31 +5424,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5452,24 +5464,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,31 +5490,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5518,24 +5530,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5544,31 +5556,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>330</v>
+        <v>107</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5577,31 +5589,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>96</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5623,53 +5635,119 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7637.9099999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>335</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
         <v>336</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>114</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>100</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>337</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>338</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>114</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>270</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7693.9099999999999</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>339</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>340</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>341</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6283,10 +6361,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
   </si>
   <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -611,6 +620,12 @@
     <t>21.5000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -818,6 +833,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>VERANO CAPS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG 6 TAB</t>
   </si>
   <si>
@@ -890,9 +911,6 @@
     <t>73:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1028,7 +1046,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:15 PM</t>
+    <t>Saturday, 30 August, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3451,7 +3469,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,11 +3545,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3543,31 +3561,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3576,31 +3594,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3682,7 +3700,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3699,7 +3717,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3748,7 +3766,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3814,7 +3832,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,28 +3891,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3927,10 +3945,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,31 +3990,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,31 +4023,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,31 +4122,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,7 +4287,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,11 +4337,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4342,7 +4360,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4375,7 +4393,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,11 +4403,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4401,7 +4419,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4418,11 +4436,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4500,7 +4518,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4540,7 +4558,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,11 +4634,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4698,31 +4716,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,31 +4782,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4797,28 +4815,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4830,31 +4848,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4888,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4884,10 +4902,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,11 +4931,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4929,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4997,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>297</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5063,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5061,7 +5079,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5078,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5112,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5129,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5134,7 +5152,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5162,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,14 +5178,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,7 +5211,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5210,14 +5228,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5292,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,14 +5327,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,14 +5360,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5358,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,14 +5426,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5424,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,14 +5459,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5464,7 +5482,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,7 +5508,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5507,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5530,7 +5548,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,14 +5558,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,14 +5591,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5589,14 +5607,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5606,11 +5624,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5622,14 +5640,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5639,11 +5657,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5655,14 +5673,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5672,14 +5690,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5688,14 +5706,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5705,49 +5723,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>339</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>340</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>114</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>136</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>341</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>342</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>114</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>100</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>343</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>344</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>114</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>277</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7693.9099999999999</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>339</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>340</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>341</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7901.9099999999999</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>345</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>346</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>347</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6371,10 +6488,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:19 PM</t>
+    <t>Saturday, 30 August, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:20 PM</t>
+    <t>Saturday, 30 August, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:22 PM</t>
+    <t>Saturday, 30 August, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -887,6 +887,18 @@
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -918,9 +930,6 @@
   </si>
   <si>
     <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>زيت فاتيكا وسط 90 مل</t>
@@ -4960,15 +4969,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +5006,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,14 +5039,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5079,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>303</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5119,7 +5128,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>33</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5195,14 +5204,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,7 +5220,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5228,14 +5237,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>158</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5244,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5277,14 +5286,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5310,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,11 +5336,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5343,7 +5352,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5360,14 +5369,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,14 +5402,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5409,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5430,10 +5439,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5442,14 +5451,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5468,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5475,14 +5484,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,14 +5501,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,7 +5517,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5525,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5548,7 +5557,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5583,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>103</v>
+        <v>329</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5614,7 +5623,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5633,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5640,7 +5649,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5657,11 +5666,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5673,14 +5682,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,14 +5699,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>333</v>
+        <v>94</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5713,7 +5722,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,14 +5732,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5739,14 +5748,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,11 +5765,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5772,14 +5781,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5789,11 +5798,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5805,14 +5814,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5822,49 +5831,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>346</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>347</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>114</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>277</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q133" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7901.9099999999999</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>345</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>346</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>347</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7997.9099999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>348</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>349</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>350</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6503,10 +6545,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -890,48 +890,48 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>73:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان كوبي </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>جل صبار للبشره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>73:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -1055,7 +1055,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:23 PM</t>
+    <t>Saturday, 30 August, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4963,7 +4963,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +4973,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5088,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5138,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>306</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>293</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>103</v>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>33</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>7997.9099999999999</v>
+        <v>8093.9099999999999</v>
       </c>
       <c r="Q134" s="13"/>
     </row>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:25 PM</t>
+    <t>Saturday, 30 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:38 PM</t>
+    <t>Saturday, 30 August, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
+    <t>170.0000</t>
   </si>
   <si>
     <t>DERMATIN 1% TOP. CREAM 14 GM</t>
@@ -950,7 +950,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1055,7 +1055,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:45 PM</t>
+    <t>Saturday, 30 August, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2422,7 +2422,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2439,7 +2439,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>313</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>8093.9099999999999</v>
+        <v>8188.9099999999999</v>
       </c>
       <c r="Q134" s="13"/>
     </row>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:46 PM</t>
+    <t>Saturday, 30 August, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
@@ -353,9 +362,6 @@
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -692,6 +698,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -1055,7 +1067,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:47 PM</t>
+    <t>Saturday, 30 August, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,24 +2203,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2224,7 +2236,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2257,7 +2269,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2267,11 +2279,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2356,7 +2368,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2455,7 +2467,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2472,7 +2484,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2488,7 +2500,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2521,7 +2533,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2554,7 +2566,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2637,7 +2649,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2653,21 +2665,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2679,31 +2691,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2844,7 +2856,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2861,11 +2873,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2960,7 +2972,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2983,7 +2995,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3009,31 +3021,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3042,7 +3054,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3055,18 +3067,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3125,11 +3137,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3158,7 +3170,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3181,7 +3193,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3214,7 +3226,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3280,7 +3292,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3294,10 +3306,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3471,7 +3483,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3577,7 +3589,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3603,31 +3615,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3636,31 +3648,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3702,7 +3714,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3785,14 +3797,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3808,7 +3820,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3822,10 +3834,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3834,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3907,7 +3919,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3917,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3940,7 +3952,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3950,11 +3962,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3973,21 +3985,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4012,18 +4024,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4032,31 +4044,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4065,31 +4077,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4131,31 +4143,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4164,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,14 +4193,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4197,31 +4209,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4336,7 +4348,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4362,7 +4374,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4428,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,11 +4490,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4511,11 +4523,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4544,11 +4556,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,11 +4589,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4610,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4666,7 +4678,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4676,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4692,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,7 +4721,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4732,24 +4744,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4791,31 +4803,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4824,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,11 +4853,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4890,28 +4902,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4923,31 +4935,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4963,13 +4975,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4980,7 +4992,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4996,21 +5008,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5022,28 +5034,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>33</v>
@@ -5055,28 +5067,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5088,31 +5100,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,31 +5133,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>306</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5154,31 +5166,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5187,7 +5199,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5200,18 +5212,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5220,31 +5232,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5253,7 +5265,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5266,18 +5278,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,31 +5298,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5319,31 +5331,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5352,28 +5364,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5385,31 +5397,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,28 +5430,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5451,31 +5463,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5484,28 +5496,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5517,31 +5529,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5550,28 +5562,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5590,24 +5602,24 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5616,28 +5628,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5649,31 +5661,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5689,21 +5701,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>95</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5715,31 +5727,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5755,21 +5767,21 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>341</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5781,31 +5793,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5814,28 +5826,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5860,53 +5872,119 @@
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>348</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>349</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>68</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>103</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>350</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>351</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>68</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>281</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8188.9099999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>348</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>349</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>350</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8255.9099999999999</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>352</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>353</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>354</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6550,10 +6628,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -191,6 +200,12 @@
     <t>327.0000</t>
   </si>
   <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -239,12 +254,30 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -275,15 +308,15 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -338,639 +371,654 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>346.0000</t>
+  </si>
+  <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>28.5600</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVA-C-N 20 TAB</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>-5:-1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>221.0000</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>42.3000</t>
+  </si>
+  <si>
+    <t>ROYAL PROVITE 5000 AMP</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>500.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
+  </si>
+  <si>
+    <t>21.4500</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>90.0900</t>
+  </si>
+  <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>THYROXINE 100MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>VERANO CAPS</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8354:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIAFER  30 TAB</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>384.0000</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>73:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:5</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>346.0000</t>
-  </si>
-  <si>
-    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MELOCAM 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.3850</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>28.5600</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVA-C-N 20 TAB</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:9</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>PARACETAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>-5:-1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>221.0000</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>42.3000</t>
-  </si>
-  <si>
-    <t>ROYAL PROVITE 5000 AMP</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>500.0000</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>SOLUPRED ORO 5MG 30 ORODISPERSIBLE TAB.</t>
-  </si>
-  <si>
-    <t>21.4500</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>90.0900</t>
-  </si>
-  <si>
-    <t>TARIVID 200MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>THYROXINE 100MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TRIMED FLU 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>VERANO CAPS</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG 6 TAB</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8354:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIAFER  30 TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>ZITHOTRAC 500 MG 3 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان كوبي </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>جل صبار للبشره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>73:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
     <t>سويت كوكو</t>
   </si>
   <si>
@@ -1019,9 +1067,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>مسك بتشيز كيك</t>
   </si>
   <si>
@@ -1040,9 +1085,6 @@
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -1067,7 +1109,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 10:57 PM</t>
+    <t>Saturday, 30 August, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1948,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1923,7 +1965,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1939,7 +1981,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1949,14 +1991,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1965,14 +2007,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1989,7 +2031,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2005,7 +2047,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2022,7 +2064,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2038,7 +2080,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2048,11 +2090,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -2064,14 +2106,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2081,14 +2123,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2097,14 +2139,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2137,7 +2179,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2170,7 +2212,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2180,14 +2222,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2196,7 +2238,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2209,15 +2251,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2229,14 +2271,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2246,11 +2288,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2262,31 +2304,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,14 +2337,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2312,11 +2354,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2328,14 +2370,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2345,14 +2387,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2361,14 +2403,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2378,14 +2420,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2394,14 +2436,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2411,14 +2453,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2427,14 +2469,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2444,14 +2486,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2460,14 +2502,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2477,14 +2519,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2493,14 +2535,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2510,11 +2552,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2526,14 +2568,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2547,10 +2589,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2566,7 +2608,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2576,11 +2618,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2592,14 +2634,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2609,14 +2651,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2625,14 +2667,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2642,14 +2684,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2658,14 +2700,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2675,14 +2717,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2691,31 +2733,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2724,14 +2766,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2741,11 +2783,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2757,14 +2799,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2774,14 +2816,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2797,7 +2839,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,14 +2849,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2823,14 +2865,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,11 +2882,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2856,31 +2898,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,7 +2931,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2906,11 +2948,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2922,14 +2964,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2939,14 +2981,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2962,7 +3004,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2979,7 +3021,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2995,7 +3037,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3047,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3021,14 +3063,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3038,14 +3080,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3054,31 +3096,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3087,14 +3129,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3127,7 +3169,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3160,7 +3202,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,11 +3212,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3186,14 +3228,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3203,14 +3245,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3219,14 +3261,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3236,14 +3278,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,31 +3294,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3285,14 +3327,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,14 +3344,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3318,14 +3360,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3335,11 +3377,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3351,14 +3393,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,14 +3410,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3384,14 +3426,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3401,7 +3443,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3434,14 +3476,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,14 +3492,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3467,11 +3509,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3483,14 +3525,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3500,11 +3542,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3516,14 +3558,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3575,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,14 +3591,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3566,14 +3608,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3589,7 +3631,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3599,14 +3641,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3615,14 +3657,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3632,7 +3674,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3655,24 +3697,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3681,14 +3723,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,11 +3740,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3714,14 +3756,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3731,14 +3773,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3747,14 +3789,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3764,11 +3806,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3780,14 +3822,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3839,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3813,14 +3855,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,11 +3872,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3846,14 +3888,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,11 +3905,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3879,31 +3921,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,14 +3954,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3971,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,14 +3987,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +4004,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +4020,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4037,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,28 +4053,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4051,7 +4093,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4103,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4077,31 +4119,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4110,14 +4152,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4169,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,31 +4185,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4218,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4235,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,31 +4251,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,31 +4284,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4275,14 +4317,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4334,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,31 +4350,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,14 +4383,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4400,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,28 +4416,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4407,14 +4449,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4466,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,28 +4482,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4473,14 +4515,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4532,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4506,14 +4548,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4565,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4581,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4598,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4572,14 +4614,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,14 +4631,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,14 +4647,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,14 +4664,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4638,14 +4680,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,11 +4697,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4671,7 +4713,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4688,14 +4730,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4746,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,14 +4763,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4744,7 +4786,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,11 +4796,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4770,14 +4812,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4829,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,31 +4845,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4853,11 +4895,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4869,14 +4911,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4928,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>191</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4944,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,11 +4961,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4935,14 +4977,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4994,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4968,31 +5010,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,28 +5043,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5034,14 +5076,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5093,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,31 +5109,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,31 +5142,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,28 +5175,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5166,31 +5208,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,31 +5241,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,31 +5274,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,31 +5307,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,31 +5340,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,31 +5373,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,28 +5406,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5397,31 +5439,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,28 +5472,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5463,31 +5505,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,31 +5538,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5536,24 +5578,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5569,24 +5611,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5595,31 +5637,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>106</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,31 +5670,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,31 +5703,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,28 +5736,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5734,21 +5776,21 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5767,24 +5809,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5793,31 +5835,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5826,31 +5868,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5859,28 +5901,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>20</v>
@@ -5892,31 +5934,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5925,66 +5967,363 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q135" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>348</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>349</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>73</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>40</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>350</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>117</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>73</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>351</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>352</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>57</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>73</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>295</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>353</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>57</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>73</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>108</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>354</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>335</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>73</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>355</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>356</v>
+      </c>
+      <c t="s" r="Q140" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8255.9099999999999</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>352</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>353</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>354</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>357</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>124</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>73</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>358</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>360</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>361</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>73</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>152</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>362</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>363</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>73</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>114</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>364</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>365</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>73</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>295</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>8999.4300000000003</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>366</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>367</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>368</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6638,10 +6977,55 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -581,6 +581,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
   </si>
   <si>
@@ -1094,9 +1100,6 @@
     <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -1109,7 +1112,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:02 PM</t>
+    <t>Saturday, 30 August, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3697,7 +3700,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3862,7 +3865,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3895,7 +3898,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3921,31 +3924,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3954,31 +3957,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4020,7 +4023,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4070,14 +4073,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4202,14 +4205,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4258,7 +4261,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4291,21 +4294,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4330,18 +4333,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4350,31 +4353,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4383,28 +4386,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4423,24 +4426,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4449,31 +4452,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4482,31 +4485,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4515,31 +4518,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4598,14 +4601,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4621,7 +4624,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4647,14 +4650,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4664,14 +4667,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>182</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4680,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4697,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4713,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4746,14 +4749,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4779,7 +4782,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4796,11 +4799,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4819,7 +4822,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4845,14 +4848,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4862,11 +4865,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4895,11 +4898,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4911,7 +4914,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4928,11 +4931,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4961,11 +4964,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4994,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5017,7 +5020,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5027,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5060,14 +5063,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5093,14 +5096,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5116,24 +5119,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5149,24 +5152,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5175,14 +5178,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5192,7 +5195,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5215,7 +5218,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5225,14 +5228,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5241,14 +5244,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5258,14 +5261,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5274,14 +5277,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5291,14 +5294,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5314,24 +5317,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5340,7 +5343,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5357,11 +5360,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5373,31 +5376,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5406,31 +5409,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5439,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5456,14 +5459,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5479,7 +5482,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5489,14 +5492,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5505,14 +5508,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5522,14 +5525,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5545,7 +5548,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5555,14 +5558,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>324</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5571,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5588,14 +5591,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>33</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5611,7 +5614,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5621,14 +5624,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5637,7 +5640,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5654,14 +5657,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>332</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5670,7 +5673,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5687,14 +5690,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>174</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5703,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>57</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5720,14 +5723,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5743,7 +5746,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5753,11 +5756,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5769,14 +5772,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5786,11 +5789,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
@@ -5802,7 +5805,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5819,14 +5822,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5842,7 +5845,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5852,14 +5855,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5868,14 +5871,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5885,14 +5888,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5908,7 +5911,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5918,14 +5921,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5934,14 +5937,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5951,14 +5954,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5967,7 +5970,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5984,14 +5987,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6000,14 +6003,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6017,14 +6020,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6040,7 +6043,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6050,14 +6053,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6073,7 +6076,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6083,11 +6086,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>20</v>
@@ -6099,7 +6102,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6116,11 +6119,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>20</v>
@@ -6132,14 +6135,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>335</v>
+        <v>57</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6149,14 +6152,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>356</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6165,14 +6168,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>124</v>
+        <v>337</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6182,14 +6185,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6198,14 +6201,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>361</v>
+        <v>124</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6215,11 +6218,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>153</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>20</v>
@@ -6238,7 +6241,7 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>363</v>
+        <v>191</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6248,11 +6251,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>20</v>
@@ -6264,14 +6267,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6281,49 +6284,82 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q144" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>365</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>366</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>73</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>297</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q145" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="145" ht="24.75" customHeight="1">
-      <c r="P145" s="13">
-        <v>8999.4300000000003</v>
-      </c>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="14">
-        <v>366</v>
-      </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c t="s" r="G146" s="15">
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>9039.4300000000003</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
         <v>367</v>
       </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c t="s" r="K146" s="17">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
         <v>368</v>
       </c>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>369</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="702">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7022,10 +7058,15 @@
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
     <mergeCell ref="N144:O144"/>
-    <mergeCell ref="P145:Q145"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="K146:Q146"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -1112,7 +1112,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:04 PM</t>
+    <t>Saturday, 30 August, 2025 11:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -179,12 +179,21 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -530,6 +539,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVY-A SYRUP</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -1004,7 +1016,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1112,7 +1124,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:08 PM</t>
+    <t>Saturday, 30 August, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2166,7 +2178,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2215,7 +2227,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2225,11 +2237,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2241,7 +2253,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2281,7 +2293,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2307,31 +2319,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2347,24 +2359,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2380,7 +2392,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2430,7 +2442,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2446,7 +2458,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2496,7 +2508,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2512,7 +2524,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2578,7 +2590,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2677,7 +2689,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2694,7 +2706,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2710,7 +2722,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2743,7 +2755,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2776,7 +2788,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2842,7 +2854,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2892,7 +2904,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2908,13 +2920,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2941,13 +2953,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2958,7 +2970,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2974,7 +2986,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3040,7 +3052,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3073,7 +3085,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3189,7 +3201,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3205,7 +3217,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3215,11 +3227,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3264,7 +3276,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3304,13 +3316,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3321,7 +3333,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3343,7 +3355,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3354,7 +3366,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3370,7 +3382,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3413,7 +3425,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3436,7 +3448,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3479,11 +3491,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3495,28 +3507,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3627,7 +3639,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3644,11 +3656,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3660,14 +3672,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3799,7 +3811,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3842,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3865,7 +3877,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3875,11 +3887,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3931,7 +3943,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3941,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3957,31 +3969,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>212</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4007,11 +4019,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4023,31 +4035,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4063,7 +4075,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4139,11 +4151,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4195,7 +4207,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4327,21 +4339,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4360,7 +4372,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4386,31 +4398,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4452,31 +4464,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4525,24 +4537,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4584,31 +4596,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4650,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4723,7 +4735,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4832,11 +4844,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,11 +4877,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4931,11 +4943,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4997,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -5030,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5086,7 +5098,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,11 +5141,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5145,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5185,7 +5197,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5211,31 +5223,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,14 +5273,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>209</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5277,14 +5289,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5343,28 +5355,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5376,31 +5388,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5409,31 +5421,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5449,21 +5461,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5475,31 +5487,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5508,28 +5520,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5541,31 +5553,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5574,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>326</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5607,31 +5619,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5640,7 +5652,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5653,18 +5665,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5673,31 +5685,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>334</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5706,7 +5718,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5719,18 +5731,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5746,24 +5758,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>337</v>
+        <v>57</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5772,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5805,28 +5817,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>57</v>
+        <v>341</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5838,31 +5850,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5871,28 +5883,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5904,31 +5916,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5937,28 +5949,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>20</v>
@@ -5970,31 +5982,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6003,28 +6015,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>348</v>
+        <v>117</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>349</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>20</v>
@@ -6043,24 +6055,24 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6069,28 +6081,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>20</v>
@@ -6109,24 +6121,24 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>57</v>
+        <v>355</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6135,28 +6147,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>20</v>
@@ -6168,31 +6180,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>337</v>
+        <v>57</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6208,21 +6220,21 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>20</v>
@@ -6234,31 +6246,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>153</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6274,21 +6286,21 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>364</v>
+        <v>127</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>114</v>
+        <v>364</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>20</v>
@@ -6300,66 +6312,132 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q145" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>367</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>368</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>76</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>117</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>369</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>370</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>76</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>301</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q147" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>9039.4300000000003</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
-        <v>367</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
-        <v>368</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
-        <v>369</v>
-      </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>9196.4300000000003</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
+        <v>371</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
+        <v>372</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>373</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7063,10 +7141,20 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-30_00-00.xlsx
+++ b/DaySale_2025-08-30_00-00.xlsx
@@ -227,555 +227,570 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DG-WASH FLUORIDE MOUTH WASH 125ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:5</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>346.0000</t>
+  </si>
+  <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVY-A SYRUP</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>NASSAR 12*8 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>28.5600</t>
+  </si>
+  <si>
+    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVA-C-N 20 TAB</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:9</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>-5:-1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>221.0000</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>PENCILONG VIAL</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>42.3000</t>
+  </si>
+  <si>
     <t>0:6</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CERELAC رز و حديد</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN 30 TABS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>95.7600</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>DERMATIN 1% TOP. CREAM 14 GM</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DG-WASH FLUORIDE MOUTH WASH 125ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>127.6800</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:5</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>346.0000</t>
-  </si>
-  <si>
-    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>IVY-A SYRUP</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>KAPRON 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>LAMICTAL 100MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>226.00</t>
-  </si>
-  <si>
-    <t>226.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>MAALOX PLUS (LEMON FLAVOURED) ORAL SUSP. 250 ML</t>
-  </si>
-  <si>
-    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>MELOCAM 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.3850</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>NASSAR 12*8 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>28.5600</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>NIGHT CALM 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVA-C-N 20 TAB</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>4:9</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 300 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>PARACETAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>-5:-1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>221.0000</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>PENCILONG VIAL</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAX  CAPS</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>42.3000</t>
-  </si>
-  <si>
     <t>ROYAL PROVITE 5000 AMP</t>
   </si>
   <si>
@@ -902,9 +917,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>VERANO CAPS</t>
   </si>
   <si>
@@ -1022,10 +1034,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1124,7 +1133,7 @@
     <t>36:0</t>
   </si>
   <si>
-    <t>Saturday, 30 August, 2025 11:18 PM</t>
+    <t>Saturday, 30 August, 2025 11:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2343,7 +2352,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2666,14 +2675,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2682,14 +2691,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,14 +2708,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2854,7 +2863,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2937,7 +2946,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2953,13 +2962,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2986,13 +2995,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -3003,7 +3012,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3161,11 +3170,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       <